--- a/input/input.xlsx
+++ b/input/input.xlsx
@@ -81,7 +81,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -208,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -222,7 +222,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -246,7 +246,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -256,6 +256,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -570,10 +573,10 @@
     <col min="2" max="2" style="15" width="15.719285714285713" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="16" width="14.290714285714287" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="16" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="17" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="30.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -588,7 +591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="30.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
@@ -599,7 +602,7 @@
       </c>
       <c r="E2" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="54.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="54" customFormat="1" s="1">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -616,7 +619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="42.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="42" customFormat="1" s="1">
       <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
